--- a/analytics/December 2024/BSM201/analytics.xlsx
+++ b/analytics/December 2024/BSM201/analytics.xlsx
@@ -470,13 +470,13 @@
         <v>110</v>
       </c>
       <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
         <v>1</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3">
@@ -489,13 +489,13 @@
         <v>111</v>
       </c>
       <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4">
@@ -508,7 +508,7 @@
         <v>124</v>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -527,7 +527,7 @@
         <v>98</v>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
